--- a/notebooks/Foreground.xlsx
+++ b/notebooks/Foreground.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreavargasf/ua_pmlca/ua_pmlca/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8847AB60-DD29-504D-9235-CA5097516D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF47100C-E885-DF44-97CE-C08B58F3A28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32880" yWindow="4480" windowWidth="27280" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32960" yWindow="5640" windowWidth="27280" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="J272" sqref="J272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -5673,10 +5673,6 @@
         <f t="shared" si="24"/>
         <v>(unknown)</v>
       </c>
-      <c r="I261" s="1">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
       <c r="J261" s="1">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -5715,10 +5711,6 @@
         <f t="shared" si="26"/>
         <v>(unknown)</v>
       </c>
-      <c r="I262" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
       <c r="J262" s="1">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -5757,10 +5749,6 @@
         <f t="shared" si="27"/>
         <v>(unknown)</v>
       </c>
-      <c r="I263" s="1">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
       <c r="J263" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
@@ -5799,10 +5787,6 @@
         <f t="shared" si="28"/>
         <v>(unknown)</v>
       </c>
-      <c r="I264" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
       <c r="J264" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -5841,10 +5825,6 @@
         <f t="shared" si="29"/>
         <v>(unknown)</v>
       </c>
-      <c r="I265" s="1">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
       <c r="J265" s="1">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -5883,10 +5863,6 @@
         <f t="shared" si="30"/>
         <v>(unknown)</v>
       </c>
-      <c r="I266" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
       <c r="J266" s="1">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -5925,10 +5901,6 @@
         <f t="shared" si="31"/>
         <v>(unknown)</v>
       </c>
-      <c r="I267" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
       <c r="J267" s="1">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -5967,10 +5939,6 @@
         <f t="shared" si="32"/>
         <v>(unknown)</v>
       </c>
-      <c r="I268" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
       <c r="J268" s="1">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -6008,10 +5976,6 @@
       <c r="H269" s="1" t="str">
         <f t="shared" si="33"/>
         <v>(unknown)</v>
-      </c>
-      <c r="I269" s="1">
-        <f t="shared" si="33"/>
-        <v>0</v>
       </c>
       <c r="J269" s="1">
         <f t="shared" si="33"/>

--- a/notebooks/Foreground.xlsx
+++ b/notebooks/Foreground.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreavargasf/ua_pmlca/ua_pmlca/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF47100C-E885-DF44-97CE-C08B58F3A28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7839F157-AEC5-0541-A050-1A53A45C0F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32960" yWindow="5640" windowWidth="27280" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="69740" yWindow="720" windowWidth="32260" windowHeight="21480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="123">
   <si>
     <t>database</t>
   </si>
@@ -239,9 +239,6 @@
     <t>A1, pavement, materials</t>
   </si>
   <si>
-    <t>cellulose fibre production</t>
-  </si>
-  <si>
     <t>cellulose fibre</t>
   </si>
   <si>
@@ -396,6 +393,15 @@
   </si>
   <si>
     <t>B, transport, passenger car, medium size, petrol, EURO 5</t>
+  </si>
+  <si>
+    <t>market for diesel, burned in building machine</t>
+  </si>
+  <si>
+    <t>gravel production, crushed (for crushed stone)</t>
+  </si>
+  <si>
+    <t>cellulose fibre production (without borax and boric acid)</t>
   </si>
 </sst>
 </file>
@@ -795,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="J272" sqref="J272"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -808,7 +814,7 @@
     <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -946,7 +952,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1076,7 +1082,7 @@
         <v>20</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -1084,7 +1090,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>42</v>
@@ -1105,7 +1111,7 @@
         <v>21</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -1113,7 +1119,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>42</v>
@@ -1134,7 +1140,7 @@
         <v>21</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -1142,7 +1148,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
@@ -1163,7 +1169,7 @@
         <v>21</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -1192,7 +1198,7 @@
         <v>21</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -1322,7 +1328,7 @@
         <v>20</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -1351,7 +1357,7 @@
         <v>21</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -1362,7 +1368,7 @@
         <v>66</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>64</v>
@@ -1380,7 +1386,7 @@
         <v>21</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -1391,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1407,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -1512,7 +1518,7 @@
         <v>20</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J51" s="1">
         <v>2</v>
@@ -1549,7 +1555,7 @@
         <v>21</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>51</v>
@@ -1582,7 +1588,7 @@
         <v>21</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>36</v>
@@ -1622,7 +1628,7 @@
         <v>21</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>38</v>
@@ -1662,10 +1668,10 @@
         <v>21</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J55" s="1">
         <v>0</v>
@@ -1695,10 +1701,10 @@
         <v>21</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J56" s="1">
         <v>2</v>
@@ -1713,10 +1719,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>64</v>
@@ -1735,10 +1741,10 @@
         <v>21</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J57" s="1">
         <v>2</v>
@@ -1775,10 +1781,10 @@
         <v>21</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J58" s="1">
         <v>2</v>
@@ -1796,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -1804,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -1812,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -1915,7 +1921,7 @@
         <v>20</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J69" s="1">
         <v>0</v>
@@ -1945,7 +1951,7 @@
         <v>21</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>36</v>
@@ -1985,7 +1991,7 @@
         <v>21</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>38</v>
@@ -2025,7 +2031,7 @@
         <v>21</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>38</v>
@@ -2065,7 +2071,7 @@
         <v>21</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>38</v>
@@ -2105,10 +2111,10 @@
         <v>21</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -2138,10 +2144,10 @@
         <v>21</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -2171,10 +2177,10 @@
         <v>21</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J76" s="1">
         <v>2</v>
@@ -2211,10 +2217,10 @@
         <v>21</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J77" s="1">
         <v>2</v>
@@ -2251,10 +2257,10 @@
         <v>21</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J78" s="1">
         <v>2</v>
@@ -2291,10 +2297,10 @@
         <v>21</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J79" s="1">
         <v>2</v>
@@ -2312,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -2320,7 +2326,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -2328,7 +2334,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -2431,7 +2437,7 @@
         <v>20</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J90" s="1">
         <v>0</v>
@@ -2461,7 +2467,7 @@
         <v>21</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J91" s="1">
         <v>2</v>
@@ -2498,7 +2504,7 @@
         <v>21</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J92" s="1">
         <v>2</v>
@@ -2535,7 +2541,7 @@
         <v>21</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J93" s="1">
         <v>2</v>
@@ -2550,13 +2556,13 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D94" s="1">
         <f>0.000068/1000</f>
@@ -2572,7 +2578,7 @@
         <v>58</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J94" s="1">
         <v>0</v>
@@ -2580,13 +2586,13 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D95" s="1">
         <f>0.00729/1000</f>
@@ -2602,7 +2608,7 @@
         <v>58</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J95" s="1">
         <v>0</v>
@@ -2610,13 +2616,13 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D96" s="1">
         <f>0.00964/1000</f>
@@ -2632,7 +2638,7 @@
         <v>58</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J96" s="1">
         <v>0</v>
@@ -2643,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -2659,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -2764,7 +2770,7 @@
         <v>20</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J107" s="1">
         <v>0</v>
@@ -2794,7 +2800,7 @@
         <v>21</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>51</v>
@@ -2834,7 +2840,7 @@
         <v>21</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>36</v>
@@ -2874,7 +2880,7 @@
         <v>21</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>38</v>
@@ -2914,10 +2920,10 @@
         <v>21</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J111" s="1">
         <v>2</v>
@@ -2954,10 +2960,10 @@
         <v>21</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J112" s="1">
         <v>2</v>
@@ -2972,10 +2978,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>64</v>
@@ -2994,10 +3000,10 @@
         <v>21</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J113" s="1">
         <v>2</v>
@@ -3034,10 +3040,10 @@
         <v>21</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J114" s="1">
         <v>2</v>
@@ -3055,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -3063,7 +3069,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -3071,7 +3077,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -3174,7 +3180,7 @@
         <v>20</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J125" s="1">
         <v>0</v>
@@ -3204,7 +3210,7 @@
         <v>21</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>36</v>
@@ -3244,7 +3250,7 @@
         <v>21</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>38</v>
@@ -3284,7 +3290,7 @@
         <v>21</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>38</v>
@@ -3324,7 +3330,7 @@
         <v>21</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>38</v>
@@ -3364,10 +3370,10 @@
         <v>21</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J130" s="1">
         <v>2</v>
@@ -3404,10 +3410,10 @@
         <v>21</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J131" s="1">
         <v>2</v>
@@ -3444,10 +3450,10 @@
         <v>21</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J132" s="1">
         <v>2</v>
@@ -3484,10 +3490,10 @@
         <v>21</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J133" s="1">
         <v>2</v>
@@ -3524,10 +3530,10 @@
         <v>21</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J134" s="1">
         <v>2</v>
@@ -3564,10 +3570,10 @@
         <v>21</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J135" s="1">
         <v>2</v>
@@ -3585,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -3593,7 +3599,7 @@
         <v>2</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -3601,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -3704,7 +3710,7 @@
         <v>20</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J146" s="1">
         <v>0</v>
@@ -3734,7 +3740,7 @@
         <v>21</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J147" s="1">
         <v>2</v>
@@ -3771,7 +3777,7 @@
         <v>21</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J148" s="1">
         <v>2</v>
@@ -3808,7 +3814,7 @@
         <v>21</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J149" s="1">
         <v>2</v>
@@ -3823,13 +3829,13 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D150" s="1">
         <f>0.000068/1000</f>
@@ -3845,7 +3851,7 @@
         <v>58</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J150" s="1">
         <v>0</v>
@@ -3853,13 +3859,13 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D151" s="1">
         <f>0.00729/1000</f>
@@ -3875,7 +3881,7 @@
         <v>58</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J151" s="1">
         <v>0</v>
@@ -3883,13 +3889,13 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D152" s="1">
         <f>0.00964/1000</f>
@@ -3905,7 +3911,7 @@
         <v>58</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J152" s="1">
         <v>0</v>
@@ -3916,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -3924,7 +3930,7 @@
         <v>2</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -3932,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
@@ -4035,7 +4041,7 @@
         <v>20</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J163" s="1">
         <v>0</v>
@@ -4065,7 +4071,7 @@
         <v>21</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J164" s="1">
         <v>2</v>
@@ -4102,7 +4108,7 @@
         <v>21</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J165" s="1">
         <v>2</v>
@@ -4120,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -4128,7 +4134,7 @@
         <v>2</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -4136,7 +4142,7 @@
         <v>3</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -4239,7 +4245,7 @@
         <v>20</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J176" s="1">
         <v>0</v>
@@ -4247,7 +4253,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>42</v>
@@ -4269,7 +4275,7 @@
         <v>21</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J177" s="1">
         <v>2</v>
@@ -4287,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -4295,7 +4301,7 @@
         <v>2</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -4303,7 +4309,7 @@
         <v>3</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -4406,7 +4412,7 @@
         <v>20</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J188" s="1">
         <v>0</v>
@@ -4414,10 +4420,10 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>16</v>
@@ -4436,10 +4442,10 @@
         <v>21</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J189" s="1">
         <v>1</v>
@@ -4447,10 +4453,10 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>16</v>
@@ -4469,10 +4475,10 @@
         <v>21</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J190" s="1">
         <v>1</v>
@@ -4480,10 +4486,10 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>16</v>
@@ -4493,7 +4499,7 @@
         <v>0.78851927296632951</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>23</v>
@@ -4502,10 +4508,10 @@
         <v>21</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J191" s="1">
         <v>1</v>
@@ -4516,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -4524,7 +4530,7 @@
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -4532,7 +4538,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -4635,7 +4641,7 @@
         <v>20</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J202" s="1">
         <v>0</v>
@@ -4643,7 +4649,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>42</v>
@@ -4665,7 +4671,7 @@
         <v>21</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I203" s="1" t="s">
         <v>45</v>
@@ -4686,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -4694,7 +4700,7 @@
         <v>2</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -4702,7 +4708,7 @@
         <v>3</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -4805,7 +4811,7 @@
         <v>20</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J214" s="1">
         <v>0</v>
@@ -4835,7 +4841,7 @@
         <v>21</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J215" s="1">
         <v>2</v>
@@ -4872,7 +4878,7 @@
         <v>21</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J216" s="1">
         <v>2</v>
@@ -4890,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
@@ -4898,7 +4904,7 @@
         <v>2</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
@@ -4906,7 +4912,7 @@
         <v>3</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
@@ -5009,7 +5015,7 @@
         <v>20</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J227" s="1">
         <v>0</v>
@@ -5039,7 +5045,7 @@
         <v>21</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>47</v>
@@ -5079,7 +5085,7 @@
         <v>21</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I229" s="1" t="s">
         <v>46</v>
@@ -5100,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -5108,7 +5114,7 @@
         <v>2</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -5116,7 +5122,7 @@
         <v>3</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
@@ -5219,7 +5225,7 @@
         <v>20</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J240" s="1">
         <v>0</v>
@@ -5251,7 +5257,7 @@
         <v>21</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J241" s="1">
         <v>0</v>
@@ -5283,7 +5289,7 @@
         <v>21</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J242" s="1">
         <v>0</v>
@@ -5315,7 +5321,7 @@
         <v>21</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J243" s="1">
         <v>0</v>
@@ -5347,7 +5353,7 @@
         <v>21</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J244" s="1">
         <v>0</v>
@@ -5379,7 +5385,7 @@
         <v>21</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J245" s="1">
         <v>0</v>
@@ -5411,7 +5417,7 @@
         <v>21</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J246" s="1">
         <v>0</v>
@@ -5443,7 +5449,7 @@
         <v>21</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J247" s="1">
         <v>0</v>
@@ -5475,7 +5481,7 @@
         <v>21</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J248" s="1">
         <v>0</v>
@@ -5507,7 +5513,7 @@
         <v>21</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J249" s="1">
         <v>0</v>
@@ -5518,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
@@ -5526,7 +5532,7 @@
         <v>2</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
@@ -5534,7 +5540,7 @@
         <v>3</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
@@ -5987,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -5995,7 +6001,7 @@
         <v>2</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -6003,7 +6009,7 @@
         <v>3</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -6106,7 +6112,7 @@
         <v>20</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J280" s="1">
         <v>0</v>
@@ -6421,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -6429,7 +6435,7 @@
         <v>2</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
@@ -6437,7 +6443,7 @@
         <v>3</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -6540,7 +6546,7 @@
         <v>20</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J299" s="1">
         <v>0</v>
